--- a/Excel_UI.xlsx
+++ b/Excel_UI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tosca_Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ad8ad6e6c226e3b/Desktop/AE1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01C8AFE-088A-434F-9846-73AC43827A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D01C8AFE-088A-434F-9846-73AC43827A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF27C7A4-F857-42E4-A4D7-94CB11002E60}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DC3FC2C-D8F9-4FDF-81F4-764BF7EB6BB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3DC3FC2C-D8F9-4FDF-81F4-764BF7EB6BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee_Data" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -318,15 +318,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>1276350</xdr:colOff>
+          <xdr:colOff>1280160</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -370,14 +370,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -724,15 +724,15 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -767,7 +767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -804,7 +804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -841,7 +841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -878,7 +878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -915,7 +915,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -974,15 +974,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>1276350</xdr:colOff>
+                    <xdr:colOff>1280160</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -996,6 +996,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095747DF8DB9223418949977864D81C56" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2dbddf96af895ac6a6f7e7cd87a203d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="351096fc-af59-430a-b0eb-2d2c8e11a03e" xmlns:ns3="d9113f88-25d8-4cb9-b50c-94566420fa65" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37c0d1400e2b20dba699313d97d1db93" ns2:_="" ns3:_="">
     <xsd:import namespace="351096fc-af59-430a-b0eb-2d2c8e11a03e"/>
@@ -1288,19 +1297,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A496D76-92C2-4B22-9813-9A5A4607277C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B5F1391-1173-4EC5-A339-646B813DF20B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B5F1391-1173-4EC5-A339-646B813DF20B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A496D76-92C2-4B22-9813-9A5A4607277C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="351096fc-af59-430a-b0eb-2d2c8e11a03e"/>
+    <ds:schemaRef ds:uri="d9113f88-25d8-4cb9-b50c-94566420fa65"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>